--- a/biology/Zoologie/Ieldraan/Ieldraan.xlsx
+++ b/biology/Zoologie/Ieldraan/Ieldraan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ieldraan melkshamensis
 Ieldraan est un genre éteint de grands crocodyliformes marins de la famille des métriorhynchidés et de la sous-famille des géosaurinés ayant existé au Jurassique moyen (Callovien), il y a environ 165 Ma (millions d'années). Ses fossiles sont connus uniquement en Angleterre.
-Une seule espèce est rattachée au genre, Ieldraan melkshamensis, décrite par Davide Foffa (d), Mark T. Young (d) et leur équipe en 2107[1].
+Une seule espèce est rattachée au genre, Ieldraan melkshamensis, décrite par Davide Foffa (d), Mark T. Young (d) et leur équipe en 2107.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le seul fossile est constitué d'un crâne fragmentaire avec une branche de mandibule préservés dans une septaria.
 </t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ieldraan se rapproche du genre Geosaurus, en particulier par la fine ornementation de son crâne[1],[2]. Sa présence dans le Callovien (à la fin du Jurassique moyen) montre que, contrairement à ce qui était admis précédemment, les Geosaurini ont évolué et se sont diversifiés avant le Kimméridgien supérieur (Jurassique supérieur), soit environ une douzaine de millions d'années plus tôt[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ieldraan se rapproche du genre Geosaurus, en particulier par la fine ornementation de son crâne,. Sa présence dans le Callovien (à la fin du Jurassique moyen) montre que, contrairement à ce qui était admis précédemment, les Geosaurini ont évolué et se sont diversifiés avant le Kimméridgien supérieur (Jurassique supérieur), soit environ une douzaine de millions d'années plus tôt,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique conduite par Foffa et ses collègues, place Ieldraan en groupe frère de Geosaurus au sein de la tribu des Geosaurini, dont il est le plus ancien représentant connu[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique conduite par Foffa et ses collègues, place Ieldraan en groupe frère de Geosaurus au sein de la tribu des Geosaurini, dont il est le plus ancien représentant connu.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Davide Foffa, Mark T. Young, Stephen L. Brusatte, Mark R. Graham et Lorna Steel, « A new metriorhynchid crocodylomorph from the Oxford Clay Formation (Middle Jurassic) of England, with implications for the origin and diversification of Geosaurini », Journal of Systematic Palaeontology, Taylor &amp; Francis, vol. 16, no 13,‎ 2 octobre 2017, p. 1123-1143 (ISSN 1477-2019 et 1478-0941, DOI 10.1080/14772019.2017.1367730)</t>
         </is>
